--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2070"/>
   </bookViews>
@@ -1251,10 +1256,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1342,7 +1347,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1350,8 +1355,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1420,7 +1425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1455,7 +1460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1632,7 +1637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
